--- a/config_5.11/permission_server_config.xlsx
+++ b/config_5.11/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6985" uniqueCount="2306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="2306">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10514,10 +10514,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>劳动先锋榜--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_xxl_rate_add</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10643,6 +10639,10 @@
   </si>
   <si>
     <t>游戏达人--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以下玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15865,10 +15865,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>2299</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>2300</v>
       </c>
       <c r="C410" s="2">
         <v>438</v>
@@ -15876,10 +15876,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>2301</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>2302</v>
       </c>
       <c r="C411" s="2">
         <v>439</v>
@@ -16453,11 +16453,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D369" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
+      <selection pane="bottomRight" activeCell="E402" sqref="D402:E402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29013,10 +29013,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D372" s="65" t="s">
         <v>2304</v>
-      </c>
-      <c r="D372" s="65" t="s">
-        <v>2305</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -29618,7 +29618,7 @@
         <v>2231</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29887,10 +29887,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="25" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D398" s="25" t="s">
         <v>2274</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>2275</v>
       </c>
       <c r="G398" s="25">
         <v>427</v>
@@ -29908,7 +29908,7 @@
         <v>1619452800</v>
       </c>
       <c r="L398" s="25" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -29919,13 +29919,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="G399" s="25">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H399" s="25" t="b">
         <v>1</v>
@@ -29934,7 +29934,7 @@
         <v>1</v>
       </c>
       <c r="J399" s="25" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K399" s="25">
         <v>1619481600</v>
@@ -29951,13 +29951,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="G400" s="25">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H400" s="25" t="b">
         <v>1</v>
@@ -29966,7 +29966,7 @@
         <v>1</v>
       </c>
       <c r="J400" s="25" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="K400" s="25">
         <v>1619481600</v>
@@ -29983,10 +29983,10 @@
         <v>1</v>
       </c>
       <c r="C401" s="29" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D401" s="29" t="s">
         <v>2288</v>
-      </c>
-      <c r="D401" s="29" t="s">
-        <v>2289</v>
       </c>
       <c r="G401" s="25">
         <v>437</v>
@@ -30004,7 +30004,7 @@
         <v>1619452800</v>
       </c>
       <c r="L401" s="29" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
   </sheetData>
@@ -30020,11 +30020,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1057"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1058" sqref="A1058"/>
+      <selection pane="bottomRight" activeCell="G1040" sqref="G1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54864,13 +54864,13 @@
         <v>3</v>
       </c>
       <c r="E1040" s="91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1040" s="91">
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2282</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -54962,7 +54962,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
@@ -55157,7 +55157,7 @@
         <v>436</v>
       </c>
       <c r="C1053" s="92" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D1053" s="92" t="s">
         <v>1884</v>
@@ -55192,7 +55192,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="92" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
@@ -55203,19 +55203,19 @@
         <v>437</v>
       </c>
       <c r="C1055" s="48" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D1055" s="48" t="s">
         <v>2291</v>
       </c>
-      <c r="D1055" s="48" t="s">
+      <c r="E1055" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="48" t="s">
         <v>2292</v>
-      </c>
-      <c r="E1055" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1055" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1055" s="48" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
@@ -55229,16 +55229,16 @@
         <v>1032</v>
       </c>
       <c r="D1056" s="8" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="8" t="s">
         <v>2295</v>
-      </c>
-      <c r="E1056" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1056" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1056" s="8" t="s">
-        <v>2296</v>
       </c>
       <c r="H1056" s="7"/>
       <c r="I1056" s="7"/>
@@ -55254,16 +55254,16 @@
         <v>1032</v>
       </c>
       <c r="D1057" s="8" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E1057" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1057" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1057" s="8" t="s">
         <v>2297</v>
-      </c>
-      <c r="E1057" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1057" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1057" s="8" t="s">
-        <v>2298</v>
       </c>
       <c r="H1057" s="7"/>
       <c r="I1057" s="7"/>
@@ -55421,7 +55421,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55605,7 +55605,7 @@
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55628,7 +55628,7 @@
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E15">
         <v>2</v>

--- a/config_5.11/permission_server_config.xlsx
+++ b/config_5.11/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="2306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5363" uniqueCount="2314">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10462,91 +10462,234 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>是天天欢乐捕鱼平台玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwgp_can_show_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘渔场限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_fish_select</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示权限限制（冲金鸡平台显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示权限限制（非冲金鸡平台显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_cjj_show</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_notcjj_show</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5及以上玩家才可兑换</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xxl_rate_add</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐倍数和任务领奖类型活动权限（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐倍数和任务领奖类型活动权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP5，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP4，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP3，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以上玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（天天欢乐捕鱼和捕鱼奥秘官方渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼和捕鱼奥秘官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>tthlby_all</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是天天欢乐捕鱼平台玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwgp_can_show_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼奥秘渔场限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_fish_select</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示权限限制（冲金鸡平台显示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示权限限制（非冲金鸡平台显示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_cjj_show</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_notcjj_show</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5及以上玩家才可兑换</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xxl_rate_add</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐倍数和任务领奖类型活动权限（冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐倍数和任务领奖类型活动权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具兑换（VIP5，非冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具兑换（VIP4，非冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具兑换（VIP3，非冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3及以上玩家</t>
+    <t>是欢乐捕鱼渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_hlby_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐捕鱼游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_byam_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以下玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_hljnh_015_yxdr_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏达人--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以下玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_crary_rebate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_p_hlfl_nor_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>byam</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（欢乐捕鱼所有玩家显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是欢乐捕鱼渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10554,95 +10697,51 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>now</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_crary_rebate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利（天天欢乐捕鱼和捕鱼奥秘官方渠道）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天欢乐捕鱼和捕鱼奥秘官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tthlby_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是欢乐捕鱼渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是捕鱼奥秘渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_hlby_little_game_discount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐捕鱼游戏打折</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>drt_byam_little_game_discount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼奥秘游戏打折</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3及以下玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_hljnh_015_yxdr_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏达人--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3及以下玩家</t>
+    <r>
+      <t>2021年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59结束</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15865,10 +15964,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="C410" s="2">
         <v>438</v>
@@ -15876,10 +15975,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="C411" s="2">
         <v>439</v>
@@ -16355,10 +16454,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="26" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B475" s="26" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C475" s="2">
         <v>410</v>
@@ -16410,7 +16509,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>2257</v>
@@ -16421,10 +16520,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C488" s="2">
         <v>433</v>
@@ -16432,10 +16531,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C489" s="2">
         <v>434</v>
@@ -16451,13 +16550,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O401"/>
+  <dimension ref="A1:O402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D369" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G384" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E402" sqref="D402:E402"/>
+      <selection pane="bottomRight" activeCell="L406" sqref="L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29013,10 +29112,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -29618,7 +29717,7 @@
         <v>2231</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29887,10 +29986,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="25" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D398" s="25" t="s">
         <v>2273</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>2274</v>
       </c>
       <c r="G398" s="25">
         <v>427</v>
@@ -29908,7 +30007,7 @@
         <v>1619452800</v>
       </c>
       <c r="L398" s="25" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -29919,10 +30018,10 @@
         <v>1</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="G399" s="25">
         <v>435</v>
@@ -29934,7 +30033,7 @@
         <v>1</v>
       </c>
       <c r="J399" s="25" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="K399" s="25">
         <v>1619481600</v>
@@ -29951,10 +30050,10 @@
         <v>1</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="G400" s="25">
         <v>436</v>
@@ -29966,7 +30065,7 @@
         <v>1</v>
       </c>
       <c r="J400" s="25" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K400" s="25">
         <v>1619481600</v>
@@ -29983,10 +30082,10 @@
         <v>1</v>
       </c>
       <c r="C401" s="29" t="s">
-        <v>2287</v>
+        <v>2304</v>
       </c>
       <c r="D401" s="29" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="G401" s="25">
         <v>437</v>
@@ -30004,7 +30103,39 @@
         <v>1619452800</v>
       </c>
       <c r="L401" s="29" t="s">
-        <v>2293</v>
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
+      <c r="A402" s="25">
+        <v>401</v>
+      </c>
+      <c r="B402" s="25">
+        <v>1</v>
+      </c>
+      <c r="C402" s="29" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D402" s="29" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G402" s="25">
+        <v>440</v>
+      </c>
+      <c r="H402" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I402" t="b">
+        <v>1</v>
+      </c>
+      <c r="J402" s="29" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K402" s="25">
+        <v>1620691200</v>
+      </c>
+      <c r="L402" s="29" t="s">
+        <v>2313</v>
       </c>
     </row>
   </sheetData>
@@ -30018,13 +30149,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1057"/>
+  <dimension ref="A1:I1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1040" sqref="G1040"/>
+      <selection pane="bottomRight" activeCell="D1063" sqref="D1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53904,7 +54035,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="48" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -54801,7 +54932,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54870,7 +55001,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -54962,7 +55093,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
@@ -54985,7 +55116,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
@@ -55031,7 +55162,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
@@ -55045,16 +55176,16 @@
         <v>2258</v>
       </c>
       <c r="D1048" s="8" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
         <v>2260</v>
-      </c>
-      <c r="E1048" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1048" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1048" s="8" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
@@ -55077,7 +55208,7 @@
         <v>1</v>
       </c>
       <c r="G1049" s="92" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
@@ -55157,7 +55288,7 @@
         <v>436</v>
       </c>
       <c r="C1053" s="92" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D1053" s="92" t="s">
         <v>1884</v>
@@ -55192,7 +55323,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="92" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
@@ -55203,19 +55334,19 @@
         <v>437</v>
       </c>
       <c r="C1055" s="48" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D1055" s="48" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E1055" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="48" t="s">
         <v>2290</v>
-      </c>
-      <c r="D1055" s="48" t="s">
-        <v>2291</v>
-      </c>
-      <c r="E1055" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1055" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1055" s="48" t="s">
-        <v>2292</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
@@ -55229,7 +55360,7 @@
         <v>1032</v>
       </c>
       <c r="D1056" s="8" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="E1056" s="8">
         <v>2</v>
@@ -55238,7 +55369,7 @@
         <v>1</v>
       </c>
       <c r="G1056" s="8" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="H1056" s="7"/>
       <c r="I1056" s="7"/>
@@ -55251,10 +55382,10 @@
         <v>439</v>
       </c>
       <c r="C1057" s="9" t="s">
-        <v>1032</v>
+        <v>2307</v>
       </c>
       <c r="D1057" s="8" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E1057" s="8">
         <v>2</v>
@@ -55263,10 +55394,33 @@
         <v>1</v>
       </c>
       <c r="G1057" s="8" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="H1057" s="7"/>
       <c r="I1057" s="7"/>
+    </row>
+    <row r="1058" spans="1:9">
+      <c r="A1058" s="8">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="8">
+        <v>440</v>
+      </c>
+      <c r="C1058" s="48" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D1058" s="48" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E1058" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1058" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1058" s="48" t="s">
+        <v>2311</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -55281,7 +55435,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55421,7 +55575,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55605,7 +55759,7 @@
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55628,7 +55782,7 @@
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55714,7 +55868,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2259</v>
+        <v>2309</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>

--- a/config_5.11/permission_server_config.xlsx
+++ b/config_5.11/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5363" uniqueCount="2314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5363" uniqueCount="2315">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10011,10 +10011,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_xxlzb_009_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>banner_ggxt</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10742,6 +10738,14 @@
       </rPr>
       <t>日23:59:59结束</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_cjj_xxlzb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15964,10 +15968,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>2296</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>2297</v>
       </c>
       <c r="C410" s="2">
         <v>438</v>
@@ -15975,10 +15979,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>2298</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>2299</v>
       </c>
       <c r="C411" s="2">
         <v>439</v>
@@ -16454,10 +16458,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="26" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B475" s="26" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C475" s="2">
         <v>410</v>
@@ -16498,10 +16502,10 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B482" s="2" t="s">
         <v>2176</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>2177</v>
       </c>
       <c r="C482" s="2">
         <v>417</v>
@@ -16509,10 +16513,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C485" s="2">
         <v>432</v>
@@ -16520,10 +16524,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C488" s="2">
         <v>433</v>
@@ -16531,10 +16535,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C489" s="2">
         <v>434</v>
@@ -16553,10 +16557,10 @@
   <dimension ref="A1:O402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L406" sqref="L406"/>
+      <selection pane="bottomRight" activeCell="L373" sqref="L373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29112,10 +29116,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D372" s="65" t="s">
         <v>2301</v>
-      </c>
-      <c r="D372" s="65" t="s">
-        <v>2302</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -29146,7 +29150,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2175</v>
+        <v>2313</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>2063</v>
@@ -29169,7 +29173,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="65" t="s">
-        <v>2122</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="21" customFormat="1">
@@ -29246,7 +29250,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2127</v>
@@ -29351,7 +29355,7 @@
         <v>2167</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -29383,7 +29387,7 @@
         <v>2168</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -29415,7 +29419,7 @@
         <v>2169</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -29444,10 +29448,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -29476,10 +29480,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29510,10 +29514,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29544,10 +29548,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29578,10 +29582,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29612,10 +29616,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D387" s="110" t="s">
         <v>2223</v>
-      </c>
-      <c r="D387" s="110" t="s">
-        <v>2224</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29635,7 +29639,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29646,10 +29650,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D388" s="110" t="s">
         <v>2226</v>
-      </c>
-      <c r="D388" s="110" t="s">
-        <v>2227</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29669,7 +29673,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29680,10 +29684,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D389" s="109" t="s">
         <v>2229</v>
-      </c>
-      <c r="D389" s="109" t="s">
-        <v>2230</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29703,7 +29707,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29714,10 +29718,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29731,13 +29735,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29748,10 +29752,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29765,13 +29769,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29782,10 +29786,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D392" s="113" t="s">
         <v>2237</v>
-      </c>
-      <c r="D392" s="113" t="s">
-        <v>2238</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29805,7 +29809,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29816,10 +29820,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29833,13 +29837,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29850,10 +29854,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29867,13 +29871,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29884,10 +29888,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29907,7 +29911,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29918,10 +29922,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29941,7 +29945,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29952,10 +29956,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D397" s="15" t="s">
         <v>2255</v>
-      </c>
-      <c r="D397" s="15" t="s">
-        <v>2256</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29986,10 +29990,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="25" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D398" s="25" t="s">
         <v>2272</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>2273</v>
       </c>
       <c r="G398" s="25">
         <v>427</v>
@@ -30007,7 +30011,7 @@
         <v>1619452800</v>
       </c>
       <c r="L398" s="25" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -30018,10 +30022,10 @@
         <v>1</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="G399" s="25">
         <v>435</v>
@@ -30033,13 +30037,13 @@
         <v>1</v>
       </c>
       <c r="J399" s="25" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="K399" s="25">
         <v>1619481600</v>
       </c>
       <c r="L399" s="109" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -30050,10 +30054,10 @@
         <v>1</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="G400" s="25">
         <v>436</v>
@@ -30065,13 +30069,13 @@
         <v>1</v>
       </c>
       <c r="J400" s="25" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="K400" s="25">
         <v>1619481600</v>
       </c>
       <c r="L400" s="109" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -30082,10 +30086,10 @@
         <v>1</v>
       </c>
       <c r="C401" s="29" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D401" s="29" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G401" s="25">
         <v>437</v>
@@ -30103,7 +30107,7 @@
         <v>1619452800</v>
       </c>
       <c r="L401" s="29" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -30114,10 +30118,10 @@
         <v>1</v>
       </c>
       <c r="C402" s="29" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D402" s="29" t="s">
         <v>2305</v>
-      </c>
-      <c r="D402" s="29" t="s">
-        <v>2306</v>
       </c>
       <c r="G402" s="25">
         <v>440</v>
@@ -30129,13 +30133,13 @@
         <v>1</v>
       </c>
       <c r="J402" s="29" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="K402" s="25">
         <v>1620691200</v>
       </c>
       <c r="L402" s="29" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -54035,7 +54039,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="48" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -54403,7 +54407,7 @@
         <v>1</v>
       </c>
       <c r="G1014" s="8" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -54449,7 +54453,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1017" spans="1:7">
@@ -54495,7 +54499,7 @@
         <v>2</v>
       </c>
       <c r="G1018" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -54541,7 +54545,7 @@
         <v>3</v>
       </c>
       <c r="G1020" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1021" spans="1:7">
@@ -54633,7 +54637,7 @@
         <v>1</v>
       </c>
       <c r="G1024" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1025" spans="1:7">
@@ -54725,7 +54729,7 @@
         <v>1</v>
       </c>
       <c r="G1028" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -54817,7 +54821,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -54840,7 +54844,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -54863,7 +54867,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -54886,7 +54890,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54909,7 +54913,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -54932,7 +54936,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54955,7 +54959,7 @@
         <v>1</v>
       </c>
       <c r="G1038" s="96" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -54978,7 +54982,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
@@ -54989,7 +54993,7 @@
         <v>428</v>
       </c>
       <c r="C1040" s="92" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D1040" s="91">
         <v>3</v>
@@ -55001,7 +55005,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -55024,7 +55028,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
@@ -55035,7 +55039,7 @@
         <v>429</v>
       </c>
       <c r="C1042" s="92" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D1042" s="91">
         <v>4</v>
@@ -55047,7 +55051,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1043" spans="1:9">
@@ -55070,7 +55074,7 @@
         <v>1</v>
       </c>
       <c r="G1043" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1044" spans="1:9">
@@ -55081,7 +55085,7 @@
         <v>430</v>
       </c>
       <c r="C1044" s="92" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D1044" s="91">
         <v>3</v>
@@ -55093,7 +55097,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
@@ -55116,7 +55120,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
@@ -55127,7 +55131,7 @@
         <v>431</v>
       </c>
       <c r="C1046" s="92" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D1046" s="91">
         <v>4</v>
@@ -55139,7 +55143,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
@@ -55162,7 +55166,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
@@ -55173,19 +55177,19 @@
         <v>432</v>
       </c>
       <c r="C1048" s="8" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D1048" s="8" t="s">
         <v>2258</v>
       </c>
-      <c r="D1048" s="8" t="s">
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
         <v>2259</v>
-      </c>
-      <c r="E1048" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1048" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1048" s="8" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
@@ -55208,7 +55212,7 @@
         <v>1</v>
       </c>
       <c r="G1049" s="92" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
@@ -55231,7 +55235,7 @@
         <v>1</v>
       </c>
       <c r="G1050" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1051" spans="1:9">
@@ -55254,7 +55258,7 @@
         <v>1</v>
       </c>
       <c r="G1051" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1052" spans="1:9">
@@ -55277,7 +55281,7 @@
         <v>1</v>
       </c>
       <c r="G1052" s="92" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1053" spans="1:9">
@@ -55288,7 +55292,7 @@
         <v>436</v>
       </c>
       <c r="C1053" s="92" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D1053" s="92" t="s">
         <v>1884</v>
@@ -55300,7 +55304,7 @@
         <v>1</v>
       </c>
       <c r="G1053" s="92" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1054" spans="1:9">
@@ -55323,7 +55327,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="92" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
@@ -55334,19 +55338,19 @@
         <v>437</v>
       </c>
       <c r="C1055" s="48" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D1055" s="48" t="s">
         <v>2288</v>
       </c>
-      <c r="D1055" s="48" t="s">
+      <c r="E1055" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="48" t="s">
         <v>2289</v>
-      </c>
-      <c r="E1055" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1055" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1055" s="48" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
@@ -55360,16 +55364,16 @@
         <v>1032</v>
       </c>
       <c r="D1056" s="8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="8" t="s">
         <v>2292</v>
-      </c>
-      <c r="E1056" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1056" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1056" s="8" t="s">
-        <v>2293</v>
       </c>
       <c r="H1056" s="7"/>
       <c r="I1056" s="7"/>
@@ -55382,19 +55386,19 @@
         <v>439</v>
       </c>
       <c r="C1057" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D1057" s="8" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E1057" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1057" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1057" s="8" t="s">
         <v>2294</v>
-      </c>
-      <c r="E1057" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1057" s="7">
-        <v>1</v>
-      </c>
-      <c r="G1057" s="8" t="s">
-        <v>2295</v>
       </c>
       <c r="H1057" s="7"/>
       <c r="I1057" s="7"/>
@@ -55407,19 +55411,19 @@
         <v>440</v>
       </c>
       <c r="C1058" s="48" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D1058" s="48" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E1058" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1058" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1058" s="48" t="s">
         <v>2310</v>
-      </c>
-      <c r="E1058" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1058" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1058" s="48" t="s">
-        <v>2311</v>
       </c>
     </row>
   </sheetData>
@@ -55469,7 +55473,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55477,13 +55481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -55523,7 +55527,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -55552,7 +55556,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -55569,13 +55573,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55584,7 +55588,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55607,7 +55611,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55615,22 +55619,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2188</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55653,7 +55657,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55661,13 +55665,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55676,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55684,7 +55688,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
@@ -55699,7 +55703,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55722,7 +55726,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55730,7 +55734,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
@@ -55753,13 +55757,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55782,7 +55786,7 @@
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55799,7 +55803,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
@@ -55814,7 +55818,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55822,22 +55826,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2199</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>2200</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2201</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55845,22 +55849,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2204</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55868,22 +55872,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2206</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2207</v>
       </c>
     </row>
   </sheetData>
